--- a/flashdrive/Growth_Curves/Nanobody_Library_ConditionTest_2.xlsx
+++ b/flashdrive/Growth_Curves/Nanobody_Library_ConditionTest_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CodyCole/Desktop/CSB_CodingProject/flashdrive/Growth_Curves/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37EBC20-9DA5-7E4E-B85B-C277990756AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nanobody_Slay_test_2.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -318,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -384,6 +390,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -708,16 +722,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G92" sqref="A91:G92"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CT2" sqref="CT2:CT42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1027,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1267,10 +1281,10 @@
         <v>0.13059999999999999</v>
       </c>
       <c r="CG2">
-        <v>0.12939999999999999</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="CH2">
-        <v>0.13089999999999999</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="CI2">
         <v>0.17069999999999999</v>
@@ -1300,16 +1314,16 @@
         <v>0.183</v>
       </c>
       <c r="CR2">
-        <v>0.21909999999999999</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="CS2">
-        <v>0.2419</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="CT2">
-        <v>0.2329</v>
+        <v>0.13059999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1563,10 +1577,10 @@
         <v>0.2258</v>
       </c>
       <c r="CG3">
-        <v>0.22720000000000001</v>
+        <v>0.2258</v>
       </c>
       <c r="CH3">
-        <v>0.25119999999999998</v>
+        <v>0.2258</v>
       </c>
       <c r="CI3">
         <v>0.17929999999999999</v>
@@ -1596,16 +1610,16 @@
         <v>0.25869999999999999</v>
       </c>
       <c r="CR3">
-        <v>0.45950000000000002</v>
+        <v>0.2258</v>
       </c>
       <c r="CS3">
-        <v>0.32490000000000002</v>
+        <v>0.2258</v>
       </c>
       <c r="CT3">
-        <v>0.28699999999999998</v>
+        <v>0.2258</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1859,10 +1873,10 @@
         <v>0.1242</v>
       </c>
       <c r="CG4">
-        <v>0.1244</v>
+        <v>0.1242</v>
       </c>
       <c r="CH4">
-        <v>0.12280000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CI4">
         <v>0.15959999999999999</v>
@@ -1892,16 +1906,16 @@
         <v>0.1812</v>
       </c>
       <c r="CR4">
-        <v>0.34</v>
+        <v>0.1242</v>
       </c>
       <c r="CS4">
-        <v>0.31040000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CT4">
-        <v>0.23519999999999999</v>
+        <v>0.1242</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -2155,10 +2169,10 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="CG5">
-        <v>0.1241</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CH5">
-        <v>0.1245</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CI5">
         <v>0.16600000000000001</v>
@@ -2188,16 +2202,16 @@
         <v>0.1885</v>
       </c>
       <c r="CR5">
-        <v>0.28760000000000002</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CS5">
-        <v>0.31909999999999999</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CT5">
-        <v>0.23830000000000001</v>
+        <v>0.12429999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -2451,10 +2465,10 @@
         <v>0.1244</v>
       </c>
       <c r="CG6">
-        <v>0.12429999999999999</v>
+        <v>0.1244</v>
       </c>
       <c r="CH6">
-        <v>0.12540000000000001</v>
+        <v>0.1244</v>
       </c>
       <c r="CI6">
         <v>0.17469999999999999</v>
@@ -2484,16 +2498,16 @@
         <v>0.20219999999999999</v>
       </c>
       <c r="CR6">
-        <v>0.27129999999999999</v>
+        <v>0.1244</v>
       </c>
       <c r="CS6">
-        <v>0.31940000000000002</v>
+        <v>0.1244</v>
       </c>
       <c r="CT6">
-        <v>0.2424</v>
+        <v>0.1244</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2747,10 +2761,10 @@
         <v>0.1245</v>
       </c>
       <c r="CG7">
-        <v>0.12429999999999999</v>
+        <v>0.1245</v>
       </c>
       <c r="CH7">
-        <v>0.1326</v>
+        <v>0.1245</v>
       </c>
       <c r="CI7">
         <v>0.19109999999999999</v>
@@ -2780,16 +2794,16 @@
         <v>0.22650000000000001</v>
       </c>
       <c r="CR7">
-        <v>0.27150000000000002</v>
+        <v>0.1245</v>
       </c>
       <c r="CS7">
-        <v>0.52110000000000001</v>
+        <v>0.1245</v>
       </c>
       <c r="CT7">
-        <v>0.22950000000000001</v>
+        <v>0.1245</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -3043,10 +3057,10 @@
         <v>0.1245</v>
       </c>
       <c r="CG8">
-        <v>0.1227</v>
+        <v>0.1245</v>
       </c>
       <c r="CH8">
-        <v>0.1502</v>
+        <v>0.1245</v>
       </c>
       <c r="CI8">
         <v>0.2177</v>
@@ -3076,16 +3090,16 @@
         <v>0.26860000000000001</v>
       </c>
       <c r="CR8">
-        <v>0.30649999999999999</v>
+        <v>0.1245</v>
       </c>
       <c r="CS8">
-        <v>0.35439999999999999</v>
+        <v>0.1245</v>
       </c>
       <c r="CT8">
-        <v>0.2354</v>
+        <v>0.1245</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -3339,10 +3353,10 @@
         <v>0.1246</v>
       </c>
       <c r="CG9">
-        <v>0.1234</v>
+        <v>0.1246</v>
       </c>
       <c r="CH9">
-        <v>0.15090000000000001</v>
+        <v>0.1246</v>
       </c>
       <c r="CI9">
         <v>0.26369999999999999</v>
@@ -3372,16 +3386,16 @@
         <v>0.3322</v>
       </c>
       <c r="CR9">
-        <v>0.33460000000000001</v>
+        <v>0.1246</v>
       </c>
       <c r="CS9">
-        <v>0.3291</v>
+        <v>0.1246</v>
       </c>
       <c r="CT9">
-        <v>0.2278</v>
+        <v>0.1246</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3635,10 +3649,10 @@
         <v>0.1245</v>
       </c>
       <c r="CG10">
-        <v>0.1241</v>
+        <v>0.1245</v>
       </c>
       <c r="CH10">
-        <v>0.15040000000000001</v>
+        <v>0.1245</v>
       </c>
       <c r="CI10">
         <v>0.33200000000000002</v>
@@ -3668,16 +3682,16 @@
         <v>0.42149999999999999</v>
       </c>
       <c r="CR10">
-        <v>0.36170000000000002</v>
+        <v>0.1245</v>
       </c>
       <c r="CS10">
-        <v>0.29709999999999998</v>
+        <v>0.1245</v>
       </c>
       <c r="CT10">
-        <v>0.23380000000000001</v>
+        <v>0.1245</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -3931,10 +3945,10 @@
         <v>0.1244</v>
       </c>
       <c r="CG11">
-        <v>0.12790000000000001</v>
+        <v>0.1244</v>
       </c>
       <c r="CH11">
-        <v>0.1847</v>
+        <v>0.1244</v>
       </c>
       <c r="CI11">
         <v>0.44900000000000001</v>
@@ -3964,16 +3978,16 @@
         <v>0.55789999999999995</v>
       </c>
       <c r="CR11">
-        <v>0.38169999999999998</v>
+        <v>0.1244</v>
       </c>
       <c r="CS11">
-        <v>0.36299999999999999</v>
+        <v>0.1244</v>
       </c>
       <c r="CT11">
-        <v>0.23830000000000001</v>
+        <v>0.1244</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -4227,10 +4241,10 @@
         <v>0.1242</v>
       </c>
       <c r="CG12">
-        <v>0.13250000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CH12">
-        <v>0.17760000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CI12">
         <v>0.5847</v>
@@ -4260,16 +4274,16 @@
         <v>0.72150000000000003</v>
       </c>
       <c r="CR12">
-        <v>0.39400000000000002</v>
+        <v>0.1242</v>
       </c>
       <c r="CS12">
-        <v>0.44969999999999999</v>
+        <v>0.1242</v>
       </c>
       <c r="CT12">
-        <v>0.2447</v>
+        <v>0.1242</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -4523,10 +4537,10 @@
         <v>0.1244</v>
       </c>
       <c r="CG13">
-        <v>0.1464</v>
+        <v>0.1244</v>
       </c>
       <c r="CH13">
-        <v>0.1845</v>
+        <v>0.1244</v>
       </c>
       <c r="CI13">
         <v>0.69950000000000001</v>
@@ -4556,16 +4570,16 @@
         <v>0.8337</v>
       </c>
       <c r="CR13">
-        <v>0.40289999999999998</v>
+        <v>0.1244</v>
       </c>
       <c r="CS13">
-        <v>0.36520000000000002</v>
+        <v>0.1244</v>
       </c>
       <c r="CT13">
-        <v>0.2462</v>
+        <v>0.1244</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -4819,10 +4833,10 @@
         <v>0.1244</v>
       </c>
       <c r="CG14">
-        <v>0.16420000000000001</v>
+        <v>0.1244</v>
       </c>
       <c r="CH14">
-        <v>0.18060000000000001</v>
+        <v>0.1244</v>
       </c>
       <c r="CI14">
         <v>0.80559999999999998</v>
@@ -4852,16 +4866,16 @@
         <v>0.94379999999999997</v>
       </c>
       <c r="CR14">
-        <v>0.4047</v>
+        <v>0.1244</v>
       </c>
       <c r="CS14">
-        <v>0.38969999999999999</v>
+        <v>0.1244</v>
       </c>
       <c r="CT14">
-        <v>0.24629999999999999</v>
+        <v>0.1244</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -5115,10 +5129,10 @@
         <v>0.1242</v>
       </c>
       <c r="CG15">
-        <v>0.1628</v>
+        <v>0.1242</v>
       </c>
       <c r="CH15">
-        <v>0.182</v>
+        <v>0.1242</v>
       </c>
       <c r="CI15">
         <v>0.90310000000000001</v>
@@ -5148,16 +5162,16 @@
         <v>1.0308999999999999</v>
       </c>
       <c r="CR15">
-        <v>0.4194</v>
+        <v>0.1242</v>
       </c>
       <c r="CS15">
-        <v>0.40150000000000002</v>
+        <v>0.1242</v>
       </c>
       <c r="CT15">
-        <v>0.24840000000000001</v>
+        <v>0.1242</v>
       </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -5411,10 +5425,10 @@
         <v>0.1242</v>
       </c>
       <c r="CG16">
-        <v>0.17119999999999999</v>
+        <v>0.1242</v>
       </c>
       <c r="CH16">
-        <v>0.18210000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CI16">
         <v>0.9819</v>
@@ -5444,16 +5458,16 @@
         <v>1.1074999999999999</v>
       </c>
       <c r="CR16">
-        <v>0.43330000000000002</v>
+        <v>0.1242</v>
       </c>
       <c r="CS16">
-        <v>0.41949999999999998</v>
+        <v>0.1242</v>
       </c>
       <c r="CT16">
-        <v>0.25869999999999999</v>
+        <v>0.1242</v>
       </c>
     </row>
-    <row r="17" spans="1:98">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -5707,10 +5721,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG17">
-        <v>0.17499999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="CH17">
-        <v>0.19120000000000001</v>
+        <v>0.1241</v>
       </c>
       <c r="CI17">
         <v>1.0632999999999999</v>
@@ -5740,16 +5754,16 @@
         <v>1.1851</v>
       </c>
       <c r="CR17">
-        <v>0.44319999999999998</v>
+        <v>0.1241</v>
       </c>
       <c r="CS17">
-        <v>0.44030000000000002</v>
+        <v>0.1241</v>
       </c>
       <c r="CT17">
-        <v>0.27239999999999998</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="18" spans="1:98">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -6003,10 +6017,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG18">
-        <v>0.19370000000000001</v>
+        <v>0.1241</v>
       </c>
       <c r="CH18">
-        <v>0.20799999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="CI18">
         <v>1.135</v>
@@ -6036,16 +6050,16 @@
         <v>1.2504</v>
       </c>
       <c r="CR18">
-        <v>0.4481</v>
+        <v>0.1241</v>
       </c>
       <c r="CS18">
-        <v>0.35580000000000001</v>
+        <v>0.1241</v>
       </c>
       <c r="CT18">
-        <v>0.26169999999999999</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="19" spans="1:98">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -6299,10 +6313,10 @@
         <v>0.1242</v>
       </c>
       <c r="CG19">
-        <v>0.19189999999999999</v>
+        <v>0.1242</v>
       </c>
       <c r="CH19">
-        <v>0.20480000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CI19">
         <v>1.1968000000000001</v>
@@ -6332,16 +6346,16 @@
         <v>1.3085</v>
       </c>
       <c r="CR19">
-        <v>0.45200000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="CS19">
-        <v>0.45429999999999998</v>
+        <v>0.1242</v>
       </c>
       <c r="CT19">
-        <v>0.26069999999999999</v>
+        <v>0.1242</v>
       </c>
     </row>
-    <row r="20" spans="1:98">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -6595,10 +6609,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG20">
-        <v>0.19889999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="CH20">
-        <v>0.19209999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="CI20">
         <v>1.246</v>
@@ -6628,16 +6642,16 @@
         <v>1.3593999999999999</v>
       </c>
       <c r="CR20">
-        <v>0.45569999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="CS20">
-        <v>0.41</v>
+        <v>0.1241</v>
       </c>
       <c r="CT20">
-        <v>0.25009999999999999</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="21" spans="1:98">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -6891,10 +6905,10 @@
         <v>0.124</v>
       </c>
       <c r="CG21">
-        <v>0.1716</v>
+        <v>0.124</v>
       </c>
       <c r="CH21">
-        <v>0.18629999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="CI21">
         <v>1.2811999999999999</v>
@@ -6924,16 +6938,16 @@
         <v>1.3996</v>
       </c>
       <c r="CR21">
-        <v>0.46089999999999998</v>
+        <v>0.124</v>
       </c>
       <c r="CS21">
-        <v>0.44319999999999998</v>
+        <v>0.124</v>
       </c>
       <c r="CT21">
-        <v>0.24079999999999999</v>
+        <v>0.124</v>
       </c>
     </row>
-    <row r="22" spans="1:98">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -7187,10 +7201,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG22">
-        <v>0.17150000000000001</v>
+        <v>0.1241</v>
       </c>
       <c r="CH22">
-        <v>0.18129999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="CI22">
         <v>1.2977000000000001</v>
@@ -7220,16 +7234,16 @@
         <v>1.3858999999999999</v>
       </c>
       <c r="CR22">
-        <v>0.46760000000000002</v>
+        <v>0.1241</v>
       </c>
       <c r="CS22">
-        <v>0.36620000000000003</v>
+        <v>0.1241</v>
       </c>
       <c r="CT22">
-        <v>0.23710000000000001</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="23" spans="1:98">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -7483,10 +7497,10 @@
         <v>0.124</v>
       </c>
       <c r="CG23">
-        <v>0.1676</v>
+        <v>0.124</v>
       </c>
       <c r="CH23">
-        <v>0.18360000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="CI23">
         <v>1.3133999999999999</v>
@@ -7516,16 +7530,16 @@
         <v>1.4597</v>
       </c>
       <c r="CR23">
-        <v>0.47699999999999998</v>
+        <v>0.124</v>
       </c>
       <c r="CS23">
-        <v>0.3427</v>
+        <v>0.124</v>
       </c>
       <c r="CT23">
-        <v>0.246</v>
+        <v>0.124</v>
       </c>
     </row>
-    <row r="24" spans="1:98">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -7779,10 +7793,10 @@
         <v>0.124</v>
       </c>
       <c r="CG24">
-        <v>0.17510000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="CH24">
-        <v>0.18940000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="CI24">
         <v>1.3244</v>
@@ -7812,16 +7826,16 @@
         <v>1.4915</v>
       </c>
       <c r="CR24">
-        <v>0.47970000000000002</v>
+        <v>0.124</v>
       </c>
       <c r="CS24">
-        <v>0.36059999999999998</v>
+        <v>0.124</v>
       </c>
       <c r="CT24">
-        <v>0.24490000000000001</v>
+        <v>0.124</v>
       </c>
     </row>
-    <row r="25" spans="1:98">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -8075,10 +8089,10 @@
         <v>0.124</v>
       </c>
       <c r="CG25">
-        <v>0.18609999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="CH25">
-        <v>0.20030000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="CI25">
         <v>1.3343</v>
@@ -8108,16 +8122,16 @@
         <v>1.5168999999999999</v>
       </c>
       <c r="CR25">
-        <v>0.48060000000000003</v>
+        <v>0.124</v>
       </c>
       <c r="CS25">
-        <v>0.40810000000000002</v>
+        <v>0.124</v>
       </c>
       <c r="CT25">
-        <v>0.25390000000000001</v>
+        <v>0.124</v>
       </c>
     </row>
-    <row r="26" spans="1:98">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -8371,10 +8385,10 @@
         <v>0.124</v>
       </c>
       <c r="CG26">
-        <v>0.1943</v>
+        <v>0.124</v>
       </c>
       <c r="CH26">
-        <v>0.21640000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="CI26">
         <v>1.3525</v>
@@ -8404,16 +8418,16 @@
         <v>1.5266</v>
       </c>
       <c r="CR26">
-        <v>0.48620000000000002</v>
+        <v>0.124</v>
       </c>
       <c r="CS26">
-        <v>0.4602</v>
+        <v>0.124</v>
       </c>
       <c r="CT26">
-        <v>0.28899999999999998</v>
+        <v>0.124</v>
       </c>
     </row>
-    <row r="27" spans="1:98">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -8667,10 +8681,10 @@
         <v>0.1239</v>
       </c>
       <c r="CG27">
-        <v>0.22020000000000001</v>
+        <v>0.1239</v>
       </c>
       <c r="CH27">
-        <v>0.24199999999999999</v>
+        <v>0.1239</v>
       </c>
       <c r="CI27">
         <v>1.3754</v>
@@ -8700,16 +8714,16 @@
         <v>1.5353000000000001</v>
       </c>
       <c r="CR27">
-        <v>0.48849999999999999</v>
+        <v>0.1239</v>
       </c>
       <c r="CS27">
-        <v>0.44890000000000002</v>
+        <v>0.1239</v>
       </c>
       <c r="CT27">
-        <v>0.29899999999999999</v>
+        <v>0.1239</v>
       </c>
     </row>
-    <row r="28" spans="1:98">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -8963,10 +8977,10 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="CG28">
-        <v>0.28560000000000002</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CH28">
-        <v>0.3019</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CI28">
         <v>1.3851</v>
@@ -8996,16 +9010,16 @@
         <v>1.5436000000000001</v>
       </c>
       <c r="CR28">
-        <v>0.49299999999999999</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CS28">
-        <v>0.45379999999999998</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="CT28">
-        <v>0.34460000000000002</v>
+        <v>0.12429999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:98">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -9259,10 +9273,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG29">
-        <v>0.37269999999999998</v>
+        <v>0.1241</v>
       </c>
       <c r="CH29">
-        <v>0.39040000000000002</v>
+        <v>0.1241</v>
       </c>
       <c r="CI29">
         <v>1.4013</v>
@@ -9292,16 +9306,16 @@
         <v>1.548</v>
       </c>
       <c r="CR29">
-        <v>0.49409999999999998</v>
+        <v>0.1241</v>
       </c>
       <c r="CS29">
-        <v>0.60929999999999995</v>
+        <v>0.1241</v>
       </c>
       <c r="CT29">
-        <v>0.43659999999999999</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="30" spans="1:98">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -9555,10 +9569,10 @@
         <v>0.1242</v>
       </c>
       <c r="CG30">
-        <v>0.41770000000000002</v>
+        <v>0.1242</v>
       </c>
       <c r="CH30">
-        <v>0.4425</v>
+        <v>0.1242</v>
       </c>
       <c r="CI30">
         <v>1.4140999999999999</v>
@@ -9588,16 +9602,16 @@
         <v>1.5542</v>
       </c>
       <c r="CR30">
-        <v>0.50109999999999999</v>
+        <v>0.1242</v>
       </c>
       <c r="CS30">
-        <v>0.58809999999999996</v>
+        <v>0.1242</v>
       </c>
       <c r="CT30">
-        <v>0.51690000000000003</v>
+        <v>0.1242</v>
       </c>
     </row>
-    <row r="31" spans="1:98">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -9851,10 +9865,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG31">
-        <v>0.51649999999999996</v>
+        <v>0.1241</v>
       </c>
       <c r="CH31">
-        <v>0.5353</v>
+        <v>0.1241</v>
       </c>
       <c r="CI31">
         <v>1.4272</v>
@@ -9884,16 +9898,16 @@
         <v>1.5607</v>
       </c>
       <c r="CR31">
-        <v>0.50080000000000002</v>
+        <v>0.1241</v>
       </c>
       <c r="CS31">
-        <v>0.67579999999999996</v>
+        <v>0.1241</v>
       </c>
       <c r="CT31">
-        <v>0.59940000000000004</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="32" spans="1:98">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -10147,10 +10161,10 @@
         <v>0.1241</v>
       </c>
       <c r="CG32">
-        <v>0.64439999999999997</v>
+        <v>0.1241</v>
       </c>
       <c r="CH32">
-        <v>0.67490000000000006</v>
+        <v>0.1241</v>
       </c>
       <c r="CI32">
         <v>1.4357</v>
@@ -10180,16 +10194,16 @@
         <v>1.5688</v>
       </c>
       <c r="CR32">
-        <v>0.50800000000000001</v>
+        <v>0.1241</v>
       </c>
       <c r="CS32">
-        <v>0.79600000000000004</v>
+        <v>0.1241</v>
       </c>
       <c r="CT32">
-        <v>0.76100000000000001</v>
+        <v>0.1241</v>
       </c>
     </row>
-    <row r="33" spans="1:98">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -10443,10 +10457,10 @@
         <v>0.124</v>
       </c>
       <c r="CG33">
-        <v>0.74629999999999996</v>
+        <v>0.124</v>
       </c>
       <c r="CH33">
-        <v>0.80679999999999996</v>
+        <v>0.124</v>
       </c>
       <c r="CI33">
         <v>1.4461999999999999</v>
@@ -10476,16 +10490,16 @@
         <v>1.5738000000000001</v>
       </c>
       <c r="CR33">
-        <v>0.51</v>
+        <v>0.124</v>
       </c>
       <c r="CS33">
-        <v>0.89949999999999997</v>
+        <v>0.124</v>
       </c>
       <c r="CT33">
-        <v>0.85980000000000001</v>
+        <v>0.124</v>
       </c>
     </row>
-    <row r="34" spans="1:98">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -10739,10 +10753,10 @@
         <v>0.1239</v>
       </c>
       <c r="CG34">
-        <v>0.82820000000000005</v>
+        <v>0.1239</v>
       </c>
       <c r="CH34">
-        <v>0.89419999999999999</v>
+        <v>0.1239</v>
       </c>
       <c r="CI34">
         <v>1.4537</v>
@@ -10772,16 +10786,16 @@
         <v>1.5790999999999999</v>
       </c>
       <c r="CR34">
-        <v>0.51180000000000003</v>
+        <v>0.1239</v>
       </c>
       <c r="CS34">
-        <v>0.97989999999999999</v>
+        <v>0.1239</v>
       </c>
       <c r="CT34">
-        <v>0.93159999999999998</v>
+        <v>0.1239</v>
       </c>
     </row>
-    <row r="35" spans="1:98">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -11035,10 +11049,10 @@
         <v>0.1239</v>
       </c>
       <c r="CG35">
-        <v>0.90310000000000001</v>
+        <v>0.1239</v>
       </c>
       <c r="CH35">
-        <v>0.95860000000000001</v>
+        <v>0.1239</v>
       </c>
       <c r="CI35">
         <v>1.4611000000000001</v>
@@ -11068,16 +11082,16 @@
         <v>1.5842000000000001</v>
       </c>
       <c r="CR35">
-        <v>0.51800000000000002</v>
+        <v>0.1239</v>
       </c>
       <c r="CS35">
-        <v>1.0432999999999999</v>
+        <v>0.1239</v>
       </c>
       <c r="CT35">
-        <v>1.0092000000000001</v>
+        <v>0.1239</v>
       </c>
     </row>
-    <row r="36" spans="1:98">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -11331,10 +11345,10 @@
         <v>0.12379999999999999</v>
       </c>
       <c r="CG36">
-        <v>0.96099999999999997</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CH36">
-        <v>1.0202</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CI36">
         <v>1.4682999999999999</v>
@@ -11364,16 +11378,16 @@
         <v>1.5812999999999999</v>
       </c>
       <c r="CR36">
-        <v>0.52139999999999997</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CS36">
-        <v>1.1026</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CT36">
-        <v>1.0793999999999999</v>
+        <v>0.12379999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:98">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -11627,10 +11641,10 @@
         <v>0.12379999999999999</v>
       </c>
       <c r="CG37">
-        <v>1.0197000000000001</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CH37">
-        <v>1.0823</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CI37">
         <v>1.474</v>
@@ -11660,16 +11674,16 @@
         <v>1.5671999999999999</v>
       </c>
       <c r="CR37">
-        <v>0.52139999999999997</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CS37">
-        <v>1.1547000000000001</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CT37">
-        <v>1.1376999999999999</v>
+        <v>0.12379999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:98">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -11923,10 +11937,10 @@
         <v>0.1239</v>
       </c>
       <c r="CG38">
-        <v>1.0636000000000001</v>
+        <v>0.1239</v>
       </c>
       <c r="CH38">
-        <v>1.1388</v>
+        <v>0.1239</v>
       </c>
       <c r="CI38">
         <v>1.4799</v>
@@ -11956,16 +11970,16 @@
         <v>1.5666</v>
       </c>
       <c r="CR38">
-        <v>0.52180000000000004</v>
+        <v>0.1239</v>
       </c>
       <c r="CS38">
-        <v>1.21</v>
+        <v>0.1239</v>
       </c>
       <c r="CT38">
-        <v>1.1912</v>
+        <v>0.1239</v>
       </c>
     </row>
-    <row r="39" spans="1:98">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -12219,10 +12233,10 @@
         <v>0.12379999999999999</v>
       </c>
       <c r="CG39">
-        <v>1.1209</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CH39">
-        <v>1.1831</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CI39">
         <v>1.4866999999999999</v>
@@ -12252,16 +12266,16 @@
         <v>1.5687</v>
       </c>
       <c r="CR39">
-        <v>0.52180000000000004</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CS39">
-        <v>1.2604</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CT39">
-        <v>1.2395</v>
+        <v>0.12379999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:98">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -12515,10 +12529,10 @@
         <v>0.1237</v>
       </c>
       <c r="CG40">
-        <v>1.1822999999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="CH40">
-        <v>1.2176</v>
+        <v>0.1237</v>
       </c>
       <c r="CI40">
         <v>1.4938</v>
@@ -12548,16 +12562,16 @@
         <v>1.573</v>
       </c>
       <c r="CR40">
-        <v>0.52359999999999995</v>
+        <v>0.1237</v>
       </c>
       <c r="CS40">
-        <v>1.3063</v>
+        <v>0.1237</v>
       </c>
       <c r="CT40">
-        <v>1.2932999999999999</v>
+        <v>0.1237</v>
       </c>
     </row>
-    <row r="41" spans="1:98">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -12811,10 +12825,10 @@
         <v>0.12379999999999999</v>
       </c>
       <c r="CG41">
-        <v>1.2262</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CH41">
-        <v>1.2493000000000001</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CI41">
         <v>1.5146999999999999</v>
@@ -12844,16 +12858,16 @@
         <v>1.5670999999999999</v>
       </c>
       <c r="CR41">
-        <v>0.52529999999999999</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CS41">
-        <v>1.3460000000000001</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="CT41">
-        <v>1.33</v>
+        <v>0.12379999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:98">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -13107,10 +13121,10 @@
         <v>0.1237</v>
       </c>
       <c r="CG42">
-        <v>1.2659</v>
+        <v>0.1237</v>
       </c>
       <c r="CH42">
-        <v>1.2808999999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="CI42">
         <v>1.5315000000000001</v>
@@ -13140,16 +13154,16 @@
         <v>1.5605</v>
       </c>
       <c r="CR42">
-        <v>0.52700000000000002</v>
+        <v>0.1237</v>
       </c>
       <c r="CS42">
-        <v>1.3816999999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="CT42">
-        <v>1.3597999999999999</v>
+        <v>0.1237</v>
       </c>
     </row>
-    <row r="45" spans="1:98">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -13192,127 +13206,127 @@
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
   </sheetData>
